--- a/UmaMusume Effect Translation List.xlsx
+++ b/UmaMusume Effect Translation List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\UmaMusume\Tools\UmaCruiseTranslation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\UmaMusume\Tools\UmaCruiseTranslation\umacruise-english-patcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85048951-BA76-4406-895E-7603C278B386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAC4D20-40CA-471B-96EA-EEC523B24773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BDD1063-2FF5-4386-B400-4FFDA0BC7CBB}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>Migraine</t>
   </si>
   <si>
-    <t xml:space="preserve">[Choice </t>
-  </si>
-  <si>
     <t xml:space="preserve">Random </t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t xml:space="preserve">Chaser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Failure </t>
   </si>
 </sst>
 </file>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2763A127-F946-4959-A269-F7F46BC34488}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,10 +727,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -914,7 +914,7 @@
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -959,186 +959,186 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
         <v>54</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
         <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
         <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
         <v>61</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
         <v>64</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
         <v>69</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
         <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
         <v>73</v>
-      </c>
-      <c r="B40" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
         <v>76</v>
-      </c>
-      <c r="B41" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
         <v>78</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
         <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
         <v>82</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
         <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
         <v>86</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
         <v>88</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
         <v>90</v>
-      </c>
-      <c r="B48" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
         <v>92</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
         <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
         <v>96</v>
-      </c>
-      <c r="B51" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
         <v>98</v>
-      </c>
-      <c r="B52" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
         <v>100</v>
-      </c>
-      <c r="B53" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
